--- a/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
+++ b/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/basicaudit/ValueSet/AuthZsubTypeVS</t>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/AuthZsubTypeVS</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T08:01:30-06:00</t>
+    <t>2022-05-04T10:16:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,9 +90,6 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>IHE http://www.ihe.net/Governance/#Intellectual_Property</t>
-  </si>
-  <si>
     <t>Immutable</t>
   </si>
   <si>
@@ -111,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/basicaudit/CodeSystem/AuthZsubType</t>
+    <t>https://profiles.ihe.net/ITI/BALP/CodeSystem/AuthZsubType</t>
   </si>
 </sst>
 </file>
@@ -375,16 +372,14 @@
       <c r="A16" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -406,28 +401,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
+++ b/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -304,82 +307,84 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -401,28 +406,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
+++ b/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T09:04:31-05:00</t>
+    <t>2023-08-01T08:55:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -233,10 +233,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -245,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -345,45 +345,37 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>27</v>
       </c>
     </row>

--- a/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
+++ b/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T08:55:24-05:00</t>
+    <t>2024-02-14T10:34:48-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
+++ b/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T08:55:24-05:00</t>
+    <t>2024-02-14T15:31:49-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
+++ b/ITI/BALP/ValueSet-AuthZsubTypeVS.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Authorization su" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>1.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T15:31:49-06:00</t>
+    <t>2025-10-31T12:57:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>IHE IT Infrastructure Technical Committee (https://www.ihe.net/ihe_domains/it_infrastructure/, iti@ihe.net)</t>
+  </si>
+  <si>
+    <t>IHE IT Infrastructure Technical Committee (iti@ihe.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -340,43 +343,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -398,28 +401,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
